--- a/Auswertung-MR/Berechnung der Lamordrequenz.xlsx
+++ b/Auswertung-MR/Berechnung der Lamordrequenz.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Documents\Uni\6 Semester\FP1\Kernspin\Bericht\EFNMR-Remote\Auswertung-MR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\EFNMR-Remote\Auswertung-MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F04DBB6-DBE4-4907-B933-5569CB18BEC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D28B0FB-07A6-4E4E-8D62-6E97764DD4BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{726F7E4B-A8CD-4BD8-8865-895C62E9830F}"/>
+    <workbookView xWindow="44880" yWindow="8325" windowWidth="29040" windowHeight="15840" xr2:uid="{726F7E4B-A8CD-4BD8-8865-895C62E9830F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Berde</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>Lamorfrequenz</t>
+  </si>
+  <si>
+    <t>north component</t>
+  </si>
+  <si>
+    <t>east component</t>
+  </si>
+  <si>
+    <t>vertical componenent</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -87,7 +99,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -103,7 +115,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -399,26 +411,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F7B0B9-98DF-4F5B-B7C0-A8C3F081C705}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>48243.1</v>
       </c>
@@ -431,8 +458,20 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="F2">
+        <v>21344.6</v>
+      </c>
+      <c r="G2">
+        <v>1118.5</v>
+      </c>
+      <c r="H2">
+        <v>43248.800000000003</v>
+      </c>
+      <c r="I2">
+        <v>48243.1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>A2*10^(-9)</f>
         <v>4.8243099999999999E-5</v>
@@ -441,15 +480,47 @@
         <f>C2*10^6</f>
         <v>42577000</v>
       </c>
+      <c r="F3">
+        <f>F2*10^(-9)</f>
+        <v>2.1344599999999999E-5</v>
+      </c>
+      <c r="G3">
+        <f>G2*10^(-9)</f>
+        <v>1.1185000000000002E-6</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="G3:I3" si="0">H2*10^(-9)</f>
+        <v>4.3248800000000005E-5</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>4.8243099999999999E-5</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
-        <f>A3*C3</f>
+        <f>A3*$C$3</f>
+        <v>2054.0464686999999</v>
+      </c>
+      <c r="F6">
+        <f>F3*$C$3</f>
+        <v>908.78903419999995</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="B6:I6" si="1">G3*$C$3</f>
+        <v>47.622374500000006</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1841.4041576000002</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
         <v>2054.0464686999999</v>
       </c>
     </row>

--- a/Auswertung-MR/Berechnung der Lamordrequenz.xlsx
+++ b/Auswertung-MR/Berechnung der Lamordrequenz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\EFNMR-Remote\Auswertung-MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D28B0FB-07A6-4E4E-8D62-6E97764DD4BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D18307-4B69-4A59-A053-37F6D59717BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="8325" windowWidth="29040" windowHeight="15840" xr2:uid="{726F7E4B-A8CD-4BD8-8865-895C62E9830F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{726F7E4B-A8CD-4BD8-8865-895C62E9830F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Berde</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -95,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F7B0B9-98DF-4F5B-B7C0-A8C3F081C705}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -489,7 +496,7 @@
         <v>1.1185000000000002E-6</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="G3:I3" si="0">H2*10^(-9)</f>
+        <f t="shared" ref="H3:I3" si="0">H2*10^(-9)</f>
         <v>4.3248800000000005E-5</v>
       </c>
       <c r="I3">
@@ -512,7 +519,7 @@
         <v>908.78903419999995</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="B6:I6" si="1">G3*$C$3</f>
+        <f t="shared" ref="G6:I6" si="1">G3*$C$3</f>
         <v>47.622374500000006</v>
       </c>
       <c r="H6">
@@ -522,6 +529,23 @@
       <c r="I6">
         <f t="shared" si="1"/>
         <v>2054.0464686999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C9" s="1">
+        <v>4.1700000000000001E-10</v>
+      </c>
+      <c r="D9" s="1">
+        <f>1/(H6^2*C9*(2*PI())^2)</f>
+        <v>17.914552724594163</v>
       </c>
     </row>
   </sheetData>

--- a/Auswertung-MR/Berechnung der Lamordrequenz.xlsx
+++ b/Auswertung-MR/Berechnung der Lamordrequenz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\EFNMR-Remote\Auswertung-MR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D18307-4B69-4A59-A053-37F6D59717BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361197DD-C5F7-45CA-8712-866C600AA058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{726F7E4B-A8CD-4BD8-8865-895C62E9830F}"/>
   </bookViews>
@@ -72,6 +72,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,9 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F7B0B9-98DF-4F5B-B7C0-A8C3F081C705}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -429,7 +433,7 @@
     <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.53125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -523,7 +527,7 @@
         <v>47.622374500000006</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f>H3*$C$3</f>
         <v>1841.4041576000002</v>
       </c>
       <c r="I6">
@@ -548,7 +552,30 @@
         <v>17.914552724594163</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D10" s="1">
+        <f>1/(H14^2*C9*(2*PI())^2)</f>
+        <v>20.243517776468828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D14" s="1">
+        <f>(C3/F14)^2*13.8</f>
+        <v>15.594056385887155</v>
+      </c>
+      <c r="F14" s="1">
+        <v>40053000</v>
+      </c>
+      <c r="H14" s="2">
+        <f>H3*$F$14</f>
+        <v>1732.2441864000002</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>